--- a/data/landings/cdfw/public/fish_bulletins/raw/fb95/raw/Table28.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb95/raw/Table28.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camilavargaspoulsen/github/wc_climate_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb95/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8FE23F-2CFE-1A47-8319-4B029F0E5AE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBA145C-CD87-FC42-A715-26BBA215B942}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Species</t>
   </si>
@@ -41,10 +41,13 @@
     <t>Barracuda</t>
   </si>
   <si>
-    <t>Rock bass ’</t>
+    <t>Halibut, California</t>
   </si>
   <si>
-    <t>Salmon</t>
+    <t>Rock bass</t>
+  </si>
+  <si>
+    <t>Seabass, white</t>
   </si>
   <si>
     <t>Yellowtail</t>
@@ -59,12 +62,6 @@
     <t>Number of angler days</t>
   </si>
   <si>
-    <t>Halibut California</t>
-  </si>
-  <si>
-    <t>Seabass white</t>
-  </si>
-  <si>
     <t>Total check</t>
   </si>
 </sst>
@@ -74,9 +71,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -85,13 +82,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -128,53 +118,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -490,301 +491,520 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18"/>
-    <col min="2" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
         <v>1936</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="8">
         <v>1937</v>
       </c>
       <c r="D1" s="6">
         <v>1938</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E1" s="6">
         <v>1939</v>
       </c>
-      <c r="F1" s="5">
+      <c r="F1" s="6">
         <v>1940</v>
       </c>
-      <c r="G1" s="5">
+      <c r="G1" s="6">
         <v>1946</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H1" s="6">
+        <v>1947</v>
+      </c>
+      <c r="I1" s="6">
+        <v>1948</v>
+      </c>
+      <c r="J1" s="6">
+        <v>1949</v>
+      </c>
+      <c r="K1" s="7">
+        <v>1950</v>
+      </c>
+      <c r="L1" s="6">
+        <v>1951</v>
+      </c>
+      <c r="M1" s="7">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="10">
         <v>410</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="10">
         <v>1368</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="10">
         <v>3880</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="10">
         <v>8730</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="10">
         <v>159</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="10">
         <v>11061</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="H2" s="10">
+        <v>8044</v>
+      </c>
+      <c r="I2" s="10">
+        <v>15313</v>
+      </c>
+      <c r="J2" s="10">
+        <v>23461</v>
+      </c>
+      <c r="K2" s="11">
+        <v>114502</v>
+      </c>
+      <c r="L2" s="10">
+        <v>75924</v>
+      </c>
+      <c r="M2" s="11">
+        <v>187267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="12">
         <v>595062</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="13">
         <v>742849</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="12">
         <v>374109</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="10">
         <v>732878</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="12">
         <v>761609</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="12">
         <v>388533</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="H3" s="12">
+        <v>689640</v>
+      </c>
+      <c r="I3" s="12">
+        <v>413036</v>
+      </c>
+      <c r="J3" s="10">
+        <v>363990</v>
+      </c>
+      <c r="K3" s="10">
+        <v>251040</v>
+      </c>
+      <c r="L3" s="10">
+        <v>269545</v>
+      </c>
+      <c r="M3" s="11">
+        <v>336862</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14">
+        <v>71366</v>
+      </c>
+      <c r="C4" s="14">
+        <v>49904</v>
+      </c>
+      <c r="D4" s="14">
+        <v>35587</v>
+      </c>
+      <c r="E4" s="14">
+        <v>85708</v>
+      </c>
+      <c r="F4" s="14">
+        <v>94945</v>
+      </c>
+      <c r="G4" s="15">
+        <v>134123</v>
+      </c>
+      <c r="H4" s="15">
+        <v>133187</v>
+      </c>
+      <c r="I4" s="15">
+        <v>178639</v>
+      </c>
+      <c r="J4" s="14">
+        <v>106516</v>
+      </c>
+      <c r="K4" s="16">
+        <v>86998</v>
+      </c>
+      <c r="L4" s="14">
+        <v>59295</v>
+      </c>
+      <c r="M4" s="16">
+        <v>34158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12">
+        <v>353278</v>
+      </c>
+      <c r="C5" s="13">
+        <v>253423</v>
+      </c>
+      <c r="D5" s="12">
+        <v>464642</v>
+      </c>
+      <c r="E5" s="10">
+        <v>458778</v>
+      </c>
+      <c r="F5" s="12">
+        <v>451679</v>
+      </c>
+      <c r="G5" s="12">
+        <v>390761</v>
+      </c>
+      <c r="H5" s="12">
+        <v>693035</v>
+      </c>
+      <c r="I5" s="12">
+        <v>661085</v>
+      </c>
+      <c r="J5" s="10">
+        <v>797328</v>
+      </c>
+      <c r="K5" s="10">
+        <v>616898</v>
+      </c>
+      <c r="L5" s="10">
+        <v>781609</v>
+      </c>
+      <c r="M5" s="11">
+        <v>535832</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="10">
+        <v>238</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1370</v>
+      </c>
+      <c r="D6" s="10">
+        <v>2610</v>
+      </c>
+      <c r="E6" s="10">
+        <v>4038</v>
+      </c>
+      <c r="F6" s="10">
+        <v>7075</v>
+      </c>
+      <c r="G6" s="10">
+        <v>2950</v>
+      </c>
+      <c r="H6" s="10">
+        <v>5063</v>
+      </c>
+      <c r="I6" s="10">
+        <v>11188</v>
+      </c>
+      <c r="J6" s="10">
+        <v>20404</v>
+      </c>
+      <c r="K6" s="11">
+        <v>52995</v>
+      </c>
+      <c r="L6" s="10">
+        <v>71970</v>
+      </c>
+      <c r="M6" s="11">
+        <v>86472</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10">
+        <v>12815</v>
+      </c>
+      <c r="C7" s="10">
+        <v>12756</v>
+      </c>
+      <c r="D7" s="10">
+        <v>16406</v>
+      </c>
+      <c r="E7" s="10">
+        <v>32241</v>
+      </c>
+      <c r="F7" s="10">
+        <v>17591</v>
+      </c>
+      <c r="G7" s="10">
+        <v>12935</v>
+      </c>
+      <c r="H7" s="10">
+        <v>21632</v>
+      </c>
+      <c r="I7" s="10">
+        <v>25051</v>
+      </c>
+      <c r="J7" s="10">
+        <v>62570</v>
+      </c>
+      <c r="K7" s="11">
+        <v>58586</v>
+      </c>
+      <c r="L7" s="10">
+        <v>44367</v>
+      </c>
+      <c r="M7" s="11">
+        <v>41043</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10">
+        <v>97453</v>
+      </c>
+      <c r="C8" s="10">
+        <v>62847</v>
+      </c>
+      <c r="D8" s="10">
+        <v>44974</v>
+      </c>
+      <c r="E8" s="10">
+        <v>26730</v>
+      </c>
+      <c r="F8" s="10">
+        <v>96756</v>
+      </c>
+      <c r="G8" s="10">
+        <v>3051</v>
+      </c>
+      <c r="H8" s="10">
+        <v>7082</v>
+      </c>
+      <c r="I8" s="10">
+        <v>12787</v>
+      </c>
+      <c r="J8" s="10">
+        <v>18023</v>
+      </c>
+      <c r="K8" s="10">
+        <v>7673</v>
+      </c>
+      <c r="L8" s="10">
+        <v>23721</v>
+      </c>
+      <c r="M8" s="11">
+        <v>59263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="15">
+        <v>826857</v>
+      </c>
+      <c r="C9" s="14">
+        <v>1009665</v>
+      </c>
+      <c r="D9" s="15">
+        <v>1011396</v>
+      </c>
+      <c r="E9" s="15">
+        <v>1271220</v>
+      </c>
+      <c r="F9" s="15">
+        <v>1061169</v>
+      </c>
+      <c r="G9" s="15">
+        <v>299944</v>
+      </c>
+      <c r="H9" s="15">
+        <v>861746</v>
+      </c>
+      <c r="I9" s="14">
+        <v>1279394</v>
+      </c>
+      <c r="J9" s="14">
+        <v>959101</v>
+      </c>
+      <c r="K9" s="14">
+        <v>1046901</v>
+      </c>
+      <c r="L9" s="15">
+        <v>1024213</v>
+      </c>
+      <c r="M9" s="16">
+        <v>1024978</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="12">
+        <v>1957479</v>
+      </c>
+      <c r="C10" s="10">
+        <v>2134182</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1953604</v>
+      </c>
+      <c r="E10" s="12">
+        <v>2620323</v>
+      </c>
+      <c r="F10" s="12">
+        <v>2490983</v>
+      </c>
+      <c r="G10" s="12">
+        <v>1243358</v>
+      </c>
+      <c r="H10" s="10">
+        <v>2419429</v>
+      </c>
+      <c r="I10" s="10">
+        <v>2596493</v>
+      </c>
+      <c r="J10" s="12">
+        <v>2351393</v>
+      </c>
+      <c r="K10" s="10">
+        <v>2235593</v>
+      </c>
+      <c r="L10" s="12">
+        <v>2350644</v>
+      </c>
+      <c r="M10" s="11">
+        <v>2305875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="34" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7">
-        <v>71366</v>
-      </c>
-      <c r="C4" s="7">
-        <v>49904</v>
-      </c>
-      <c r="D4" s="9">
-        <v>35587</v>
-      </c>
-      <c r="E4" s="7">
-        <v>85708</v>
-      </c>
-      <c r="F4" s="7">
-        <v>94945</v>
-      </c>
-      <c r="G4" s="8">
-        <v>134123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8">
-        <v>353278</v>
-      </c>
-      <c r="C5" s="8">
-        <v>253423</v>
-      </c>
-      <c r="D5" s="7">
-        <v>464642</v>
-      </c>
-      <c r="E5" s="7">
-        <v>458778</v>
-      </c>
-      <c r="F5" s="8">
-        <v>451679</v>
-      </c>
-      <c r="G5" s="8">
-        <v>390761</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7">
-        <v>238</v>
-      </c>
-      <c r="C6" s="7">
-        <v>1370</v>
-      </c>
-      <c r="D6" s="7">
-        <v>2610</v>
-      </c>
-      <c r="E6" s="7">
-        <v>4038</v>
-      </c>
-      <c r="F6" s="7">
-        <v>7075</v>
-      </c>
-      <c r="G6" s="7">
-        <v>2950</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="B11" s="17">
+        <v>204189</v>
+      </c>
+      <c r="C11" s="18">
+        <v>328216</v>
+      </c>
+      <c r="D11" s="17">
+        <v>217211</v>
+      </c>
+      <c r="E11" s="18">
+        <v>241386</v>
+      </c>
+      <c r="F11" s="17">
+        <v>273861</v>
+      </c>
+      <c r="G11" s="17">
+        <v>209043</v>
+      </c>
+      <c r="H11" s="17">
+        <v>447816</v>
+      </c>
+      <c r="I11" s="17">
+        <v>533309</v>
+      </c>
+      <c r="J11" s="18">
+        <v>490943</v>
+      </c>
+      <c r="K11" s="18">
+        <v>602431</v>
+      </c>
+      <c r="L11" s="18">
+        <v>556949</v>
+      </c>
+      <c r="M11" s="19">
+        <v>587898</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="7">
-        <v>12815</v>
-      </c>
-      <c r="C7" s="7">
-        <v>12756</v>
-      </c>
-      <c r="D7" s="9">
-        <v>16406</v>
-      </c>
-      <c r="E7" s="7">
-        <v>32241</v>
-      </c>
-      <c r="F7" s="7">
-        <v>17591</v>
-      </c>
-      <c r="G7" s="7">
-        <v>12935</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="7">
-        <v>97453</v>
-      </c>
-      <c r="C8" s="7">
-        <v>62847</v>
-      </c>
-      <c r="D8" s="9">
-        <v>44974</v>
-      </c>
-      <c r="E8" s="7">
-        <v>26730</v>
-      </c>
-      <c r="F8" s="7">
-        <v>96756</v>
-      </c>
-      <c r="G8" s="7">
-        <v>3051</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="10">
-        <v>826857</v>
-      </c>
-      <c r="C9" s="10">
-        <v>1009665</v>
-      </c>
-      <c r="D9" s="11">
-        <v>1011396</v>
-      </c>
-      <c r="E9" s="10">
-        <v>1271220</v>
-      </c>
-      <c r="F9" s="10">
-        <v>1061169</v>
-      </c>
-      <c r="G9" s="10">
-        <v>299944</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="8">
-        <v>1957479</v>
-      </c>
-      <c r="C10" s="8">
-        <v>2134182</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1953604</v>
-      </c>
-      <c r="E10" s="8">
-        <v>2620323</v>
-      </c>
-      <c r="F10" s="8">
-        <v>2490983</v>
-      </c>
-      <c r="G10" s="8">
-        <v>1243358</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="15">
+      <c r="B12" s="20">
         <f>SUM(B2:B9)-B10</f>
         <v>0</v>
       </c>
-      <c r="C11" s="15">
-        <f t="shared" ref="C11:G11" si="0">SUM(C2:C9)-C10</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="15">
+      <c r="C12" s="20">
+        <f t="shared" ref="C12:M12" si="0">SUM(C2:C9)-C10</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E12" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F12" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G12" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="34" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="12">
-        <v>204189</v>
-      </c>
-      <c r="C12" s="12">
-        <v>328216</v>
-      </c>
-      <c r="D12" s="13">
-        <v>217211</v>
-      </c>
-      <c r="E12" s="13">
-        <v>241386</v>
-      </c>
-      <c r="F12" s="12">
-        <v>273861</v>
-      </c>
-      <c r="G12" s="12">
-        <v>209043</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="13" x14ac:dyDescent="0.15"/>
+      <c r="H12" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/landings/cdfw/public/fish_bulletins/raw/fb95/raw/Table28.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb95/raw/Table28.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camilavargaspoulsen/github/wc_climate_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb95/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBA145C-CD87-FC42-A715-26BBA215B942}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79AE158-0B67-6345-AF71-1C88AB867330}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Species</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Total check</t>
+  </si>
+  <si>
+    <t>Salmon</t>
   </si>
 </sst>
 </file>
@@ -71,7 +74,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -145,37 +148,37 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -493,17 +496,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="13" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,7 +547,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -708,8 +711,10 @@
         <v>535832</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="B6" s="10">
         <v>238</v>
       </c>
@@ -788,7 +793,7 @@
         <v>41043</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -870,7 +875,7 @@
         <v>1024978</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -952,7 +957,7 @@
         <v>587898</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
         <v>10</v>
       </c>
